--- a/PP_Mapping1.xlsx
+++ b/PP_Mapping1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T15RSRO\git\FASTWebAutomation\inputFiles\Fast Extract Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2E99B8-439F-4B92-A16F-6ADE007725F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B646C244-4BE1-4217-BBB1-50E21EB0B066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ValueMapping" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="ValueMapping" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="239">
   <si>
     <t>JSON</t>
   </si>
@@ -58,24 +59,6 @@
     <t>Annual</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Semi-Annual</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>Quarterly</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -280,17 +263,503 @@
     <t>PPBulk.PolicyNumber</t>
   </si>
   <si>
-    <t>PolicyHdr.PolicyNumber</t>
+    <t>PolicyNumber</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.IssueAge</t>
+  </si>
+  <si>
+    <t>PPBulk.InsuredAge</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.RateClass</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyPremValues[0].PolicyPremValuesData.PaymentMode.#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.Gender</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyCovHdr[0].PolicyCovHdrData.IssueDate</t>
+  </si>
+  <si>
+    <t>PPBulk.PolicyDate</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyCovHdr[0].PolicyCovHdrData.FaceAmount</t>
+  </si>
+  <si>
+    <t>PPBulk.FaceAmount</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>PPBulk.BasePolicyPrem</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyPremValues[0].PolicyPremValuesData.BaseModalPrem</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyHdrPartyRole[0].PolicyHdrPartyRoleData.StartDate</t>
+  </si>
+  <si>
+    <t>PPBulk.BasePolicyPremDate</t>
+  </si>
+  <si>
+    <t>PPBulk.Annual1</t>
+  </si>
+  <si>
+    <t>PPBulk.Semi1</t>
+  </si>
+  <si>
+    <t>PPBulk.Quarterly1</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyPremValues[0].PolicyPremValuesData.BaseAnnualPrem</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyPremValues[0].PolicyPremValuesData.SemiAnnualPrem</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyPremValues[0].PolicyPremValuesData.QuarterlyPrem</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyPremValues[0].PolicyPremValuesData.MonthlyPrem</t>
+  </si>
+  <si>
+    <t>PPBulk.COM1</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.ProdModel.ProdModelData.Name</t>
+  </si>
+  <si>
+    <t>AD 123 Level Term</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyCovHdr[0].PolicyCovTL.PolicyCovTLData.PaymentPeriod</t>
+  </si>
+  <si>
+    <t>PPBulk.PayPeriod</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.PolicyFee</t>
+  </si>
+  <si>
+    <t>Admin Batch.AdminFee</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.ADBAmt</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBamt</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.ADBPrem</t>
+  </si>
+  <si>
+    <t>PPBulk.ADB_prem1</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyCovHdr[0].PolicyCovHdrData.MnemPlanCode</t>
+  </si>
+  <si>
+    <t>AD123 Term Test Scenerios.Mnemonic Plan Code</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyCovHdr[0].PolicyCovHdrPartyRole[0].Party.Person.PersonData.BirthDate</t>
+  </si>
+  <si>
+    <t>AD123 Term Test Scenerios.DOB</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[0].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[1].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[2].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[3].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[4].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[5].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[6].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[7].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[8].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[9].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[10].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[11].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[12].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[13].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[14].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[15].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[16].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[17].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[18].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[19].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[20].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[21].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[22].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[23].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[24].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[25].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[26].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[27].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[28].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[29].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[30].#text</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_1</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_2</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_3</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_4</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_5</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_6</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_7</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_8</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_9</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_10</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_11</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_12</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_13</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_14</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_15</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_16</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_17</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_18</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_19</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_20</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_21</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_22</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_23</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_24</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_25</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_26</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_27</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_28</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_29</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_30</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_31</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[0].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[1].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[2].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[3].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[4].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[5].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[6].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[7].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[8].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[9].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[10].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[11].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[12].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[13].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[14].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[15].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[16].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[17].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[18].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[19].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[20].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[21].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[22].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[23].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[24].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[25].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[26].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[27].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[28].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[29].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[30].#text</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_1</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_2</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_3</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_4</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_5</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_6</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_7</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_8</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_9</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_10</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_11</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_12</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_13</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_14</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_15</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_16</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_17</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_18</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_19</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_20</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_21</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_22</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_23</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_24</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_25</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_26</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_27</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_28</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_29</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_30</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -619,16 +1088,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="85.1796875" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -641,10 +1110,922 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>84</v>
       </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B80" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>207</v>
+      </c>
+      <c r="B83" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DB19EE-6443-443A-AE9C-0BE72CEF0688}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -652,12 +2033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7D1FFB-6354-4A22-889C-9A46ADF975EE}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,23 +2078,23 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -724,57 +2105,57 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10">
-        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -800,10 +2181,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
@@ -811,10 +2189,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
@@ -822,10 +2197,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
@@ -905,7 +2277,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C25" t="s">
@@ -929,7 +2301,7 @@
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
@@ -1006,30 +2378,6 @@
       </c>
       <c r="C37" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/PP_Mapping1.xlsx
+++ b/PP_Mapping1.xlsx
@@ -5,29 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T15RSRO\git\FASTWebAutomation\inputFiles\Fast Extract Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nylim\pnjfs1\Share\IT\COMPPROG\GP Related\WIP\RetailLife\Documentsprovided\Integration Systems\Print Policy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B646C244-4BE1-4217-BBB1-50E21EB0B066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD9E576-E934-42AF-853B-81F3C152FF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="ValueMapping" sheetId="2" r:id="rId3"/>
+    <sheet name="ValueMapping" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="825">
   <si>
     <t>JSON</t>
   </si>
@@ -86,9 +96,6 @@
     <t>SP_29</t>
   </si>
   <si>
-    <t>Preferred</t>
-  </si>
-  <si>
     <t>P_27</t>
   </si>
   <si>
@@ -101,165 +108,12 @@
     <t>Select Standard</t>
   </si>
   <si>
-    <t>SS_28</t>
-  </si>
-  <si>
     <t>Standard</t>
   </si>
   <si>
     <t>S1_14</t>
   </si>
   <si>
-    <t>AK-01</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>CA-04</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>FL-09</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>DC-08</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>NH-28</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>WA-46</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>IL-12</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>MS-23</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MO-24</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>KY-16</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>CT-06</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>DE-07</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>ME-18</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>NJ-29</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>AZ-02</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>CO-05</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>HI-87</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>NY-31</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>NV-27</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>TX-42</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>MT-25</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>UT-43</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>NE-26</t>
-  </si>
-  <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <t>PA-37</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>RI-38</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
     <t>PPBulk.PolicyNumber</t>
   </si>
   <si>
@@ -317,9 +171,6 @@
     <t>PPBulk.Quarterly1</t>
   </si>
   <si>
-    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyPremValues[0].PolicyPremValuesData.BaseAnnualPrem</t>
-  </si>
-  <si>
     <t>PayLoad.CalcProcessor.PolicyHdr.PolicyPremValues[0].PolicyPremValuesData.SemiAnnualPrem</t>
   </si>
   <si>
@@ -329,9 +180,6 @@
     <t>PayLoad.CalcProcessor.PolicyHdr.PolicyPremValues[0].PolicyPremValuesData.MonthlyPrem</t>
   </si>
   <si>
-    <t>PPBulk.COM1</t>
-  </si>
-  <si>
     <t>PayLoad.CalcProcessor.ProdModel.ProdModelData.Name</t>
   </si>
   <si>
@@ -744,6 +592,1926 @@
   </si>
   <si>
     <t>PPBulk.MaxBasePrem_31</t>
+  </si>
+  <si>
+    <t>Admin Batch.InitPremAnnual</t>
+  </si>
+  <si>
+    <t>Admin Batch.InitPremSemi</t>
+  </si>
+  <si>
+    <t>Admin Batch.InitPremQrtly</t>
+  </si>
+  <si>
+    <t>Admin Batch.InitPremMonthly</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.AggModalPremium</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.FinalConversionDate</t>
+  </si>
+  <si>
+    <t>PPBulk.ConversionOriginalAge</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.PremMonthly</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.PremQuarterly</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.PremSemiAnnual</t>
+  </si>
+  <si>
+    <t>PPBulk.Monthly1</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.EffectiveDate</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyCovHdr[0].Benefit[3].BenefitData.ModalPrem</t>
+  </si>
+  <si>
+    <t>PPBulk.PPO_prem1</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOamt</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2FaceAmt</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[0].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[1].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[2].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[3].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[4].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[5].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[6].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[7].#text</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_1</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_2</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_3</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_4</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_5</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_6</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_7</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_8</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_9</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_10</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_11</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_12</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_13</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_14</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_15</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_16</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_17</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_18</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_19</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_20</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_21</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_22</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_23</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_24</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_25</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_26</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_27</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_28</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_29</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_30</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_31</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_32</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_33</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_34</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_35</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_36</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_37</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_38</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_39</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_40</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_41</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_42</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_43</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_44</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_45</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_46</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_47</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_48</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_49</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_50</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_51</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_52</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_53</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_54</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_55</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_56</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_57</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_58</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_59</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_60</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_61</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_62</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_63</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_64</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_65</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[8].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[9].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[10].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[11].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[12].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[13].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[14].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[15].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[16].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[17].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[18].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[19].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[20].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[21].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[22].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[23].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[24].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[25].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[26].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[27].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[28].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[29].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[30].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[31].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[32].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[33].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[34].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[35].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[36].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[37].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[38].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[39].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[40].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[41].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[42].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[43].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[44].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[45].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[46].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[47].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[48].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[49].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[50].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[51].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[52].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[53].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[54].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[55].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[56].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[57].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[58].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[59].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[60].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[61].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[62].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[63].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B1Premium_Vector.Value[64].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyPremValues[0].PolicyPremValuesData.AnnualPrem</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyHdrExternalContractRole[0].ExternalContract.ExternalContractData.ExternalContractID</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyHdrExternalContractRole[0].PolicyHdrExternalContractRoleData.ECType</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyHdrExternalContractRole[1].ExternalContract.ExternalContractData.ExternalContractID</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyHdrExternalContractRole[1].PolicyHdrExternalContractRoleData.ECType</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyHdrExternalContractRole[2].ExternalContract.ExternalContractData.ExternalContractID</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyHdrExternalContractRole[2].PolicyHdrExternalContractRoleData.ECType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred </t>
+  </si>
+  <si>
+    <t>Non-Smoker Class-2</t>
+  </si>
+  <si>
+    <t>Non-Smoker Class-3</t>
+  </si>
+  <si>
+    <t>Non-Smoker Class-4</t>
+  </si>
+  <si>
+    <t>Non-Smoker Class-5</t>
+  </si>
+  <si>
+    <t>Non-Smoker Class-6</t>
+  </si>
+  <si>
+    <t>Non-Smoker Class-7</t>
+  </si>
+  <si>
+    <t>Non-Smoker Class-8</t>
+  </si>
+  <si>
+    <t>Non-Smoker Class-9</t>
+  </si>
+  <si>
+    <t>Non-Smoker Class-10</t>
+  </si>
+  <si>
+    <t>Non-Smoker Class-11</t>
+  </si>
+  <si>
+    <t>Non-Smoker Class-12</t>
+  </si>
+  <si>
+    <t>Non-Smoker Class-13</t>
+  </si>
+  <si>
+    <t>Standard Class 2</t>
+  </si>
+  <si>
+    <t>Standard Class 3</t>
+  </si>
+  <si>
+    <t>Standard Class 4</t>
+  </si>
+  <si>
+    <t>Standard Class 5</t>
+  </si>
+  <si>
+    <t>Standard Class 6</t>
+  </si>
+  <si>
+    <t>Standard Class 7</t>
+  </si>
+  <si>
+    <t>Standard Class 8</t>
+  </si>
+  <si>
+    <t>Standard Class 9</t>
+  </si>
+  <si>
+    <t>Standard Class 10</t>
+  </si>
+  <si>
+    <t>Standard Class 11</t>
+  </si>
+  <si>
+    <t>Standard Class 12</t>
+  </si>
+  <si>
+    <t>Standard Class 13</t>
+  </si>
+  <si>
+    <t>Non-Smoker Special Class 2</t>
+  </si>
+  <si>
+    <t>Non-Smoker Special Class 3</t>
+  </si>
+  <si>
+    <t>Non-Smoker Special Class 4</t>
+  </si>
+  <si>
+    <t>Non-Smoker Special Class 5</t>
+  </si>
+  <si>
+    <t>Non-Smoker Special Class 6</t>
+  </si>
+  <si>
+    <t>Non-Smoker Special Class 7</t>
+  </si>
+  <si>
+    <t>Non-Smoker Special Class 8</t>
+  </si>
+  <si>
+    <t>Non-Smoker Special Class 9</t>
+  </si>
+  <si>
+    <t>Non-Smoker Special Class 10</t>
+  </si>
+  <si>
+    <t>Non-Smoker Special Class 11</t>
+  </si>
+  <si>
+    <t>Non-Smoker Special Class 12</t>
+  </si>
+  <si>
+    <t>Non-Smoker Special Class 13</t>
+  </si>
+  <si>
+    <t>Juvenile</t>
+  </si>
+  <si>
+    <t>Juvenile Special Class 2</t>
+  </si>
+  <si>
+    <t>Juvenile Special Class 3</t>
+  </si>
+  <si>
+    <t>Juvenile Special Class 4</t>
+  </si>
+  <si>
+    <t>Juvenile Special Class 5</t>
+  </si>
+  <si>
+    <t>Juvenile Special Class 6</t>
+  </si>
+  <si>
+    <t>Juvenile Special Class 7</t>
+  </si>
+  <si>
+    <t>Juvenile Special Class 8</t>
+  </si>
+  <si>
+    <t>Juvenile Special Class 9</t>
+  </si>
+  <si>
+    <t>Juvenile Special Class 10</t>
+  </si>
+  <si>
+    <t>Juvenile Special Class 11</t>
+  </si>
+  <si>
+    <t>Juvenile Special Class 12</t>
+  </si>
+  <si>
+    <t>Juvenile Special Class 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_28 </t>
+  </si>
+  <si>
+    <t>NS2_02</t>
+  </si>
+  <si>
+    <t>NS3_03</t>
+  </si>
+  <si>
+    <t>NS4_04</t>
+  </si>
+  <si>
+    <t>NS5_05</t>
+  </si>
+  <si>
+    <t>NS7_07</t>
+  </si>
+  <si>
+    <t>NS8_08</t>
+  </si>
+  <si>
+    <t>NS9_09</t>
+  </si>
+  <si>
+    <t>NS10_10</t>
+  </si>
+  <si>
+    <t>NS11_11</t>
+  </si>
+  <si>
+    <t>NS12_12</t>
+  </si>
+  <si>
+    <t>S8_21</t>
+  </si>
+  <si>
+    <t>S11_24</t>
+  </si>
+  <si>
+    <t>S12_25</t>
+  </si>
+  <si>
+    <t>J3_32</t>
+  </si>
+  <si>
+    <t>J8_37</t>
+  </si>
+  <si>
+    <t>J9_38</t>
+  </si>
+  <si>
+    <t>J10_39      </t>
+  </si>
+  <si>
+    <t>J11_40      </t>
+  </si>
+  <si>
+    <t>J12_41      </t>
+  </si>
+  <si>
+    <t>J13_42      </t>
+  </si>
+  <si>
+    <t>AD123 Term Test Scenerios.Agent Code 1</t>
+  </si>
+  <si>
+    <t>AD123 Term Test Scenerios.Agent Contract 1</t>
+  </si>
+  <si>
+    <t>AD123 Term Test Scenerios.Agent Code 2</t>
+  </si>
+  <si>
+    <t>AD123 Term Test Scenerios.Agent Contract 2</t>
+  </si>
+  <si>
+    <t>AD123 Term Test Scenerios.Agent Code 3</t>
+  </si>
+  <si>
+    <t>AD123 Term Test Scenerios.Agent Contract 3</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyHdrExternalContractRole[0].ExternalContract.ExternalContractData.AgentName</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyHdrExternalContractRole[1].ExternalContract.ExternalContractData.AgentName</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.PolicyHdr.PolicyHdrExternalContractRole[2].ExternalContract.ExternalContractData.AgentName</t>
+  </si>
+  <si>
+    <t>AD123 Term Test Scenerios.Agent Name 1</t>
+  </si>
+  <si>
+    <t>AD123 Term Test Scenerios.Agent Name 2</t>
+  </si>
+  <si>
+    <t>AD123 Term Test Scenerios.Agent Name 3</t>
+  </si>
+  <si>
+    <t>S9_22</t>
+  </si>
+  <si>
+    <t>S10_23</t>
+  </si>
+  <si>
+    <t>S13_26</t>
+  </si>
+  <si>
+    <t>NS6_06</t>
+  </si>
+  <si>
+    <t>NS13_13</t>
+  </si>
+  <si>
+    <t>J1_30</t>
+  </si>
+  <si>
+    <t>NS6_06 </t>
+  </si>
+  <si>
+    <t>S2_15   </t>
+  </si>
+  <si>
+    <t>S3_16  </t>
+  </si>
+  <si>
+    <t>S4_17   </t>
+  </si>
+  <si>
+    <t>S5_18  </t>
+  </si>
+  <si>
+    <t>S6_19 </t>
+  </si>
+  <si>
+    <t>S7_20 </t>
+  </si>
+  <si>
+    <t>J2_31  </t>
+  </si>
+  <si>
+    <t>J4_33 </t>
+  </si>
+  <si>
+    <t>J5_34   </t>
+  </si>
+  <si>
+    <t>J6_35   </t>
+  </si>
+  <si>
+    <t>J7_36</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_32</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_33</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_34</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_35</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_36</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_37</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_38</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_39</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_40</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_41</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_42</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_43</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_44</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_45</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_46</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_47</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_48</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_49</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_50</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_51</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_52</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_53</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_54</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_55</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_56</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_57</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_58</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_59</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_60</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_61</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_62</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_63</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_64</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_65</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_66</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_67</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_68</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_69</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_70</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_71</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_72</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_73</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_74</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_75</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_76</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_77</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_78</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_79</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_80</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_81</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_82</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_83</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_84</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_85</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_86</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_87</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_88</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_89</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_32</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_33</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_34</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_35</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_36</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_37</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_38</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_39</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_40</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_41</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_42</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_43</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_44</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_45</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_46</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_47</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_48</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_49</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_50</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_51</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_52</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_53</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_54</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_55</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_56</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_57</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_58</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_59</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_60</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_61</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_62</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_63</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_64</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_65</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_66</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_67</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_68</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_69</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_70</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_71</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_72</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_73</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_74</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_75</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_76</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_77</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_78</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_79</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_80</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_81</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_82</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_83</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_84</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_85</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_86</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_87</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_88</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_89</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[64].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[0].#text</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem1</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem2</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem3</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem4</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem5</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem6</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem7</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem8</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem9</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem10</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem11</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem12</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem13</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem14</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem15</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem16</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem17</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem18</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem19</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem20</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem21</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem22</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem23</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem24</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem25</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem26</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem27</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem28</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem29</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem30</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem31</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem32</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem33</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem34</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem35</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem36</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem37</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem38</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem39</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem40</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem41</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem42</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem43</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem44</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem45</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem46</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem47</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem48</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem49</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem50</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem51</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem52</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem53</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem54</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem55</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem56</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem57</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem58</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem59</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem60</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem61</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem62</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem63</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem64</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem65</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem66</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem67</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem68</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem69</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem70</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem71</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem72</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem73</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem74</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem75</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem76</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem77</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem78</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem79</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem80</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem81</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem82</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem83</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem84</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem85</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem86</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem87</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem88</t>
+  </si>
+  <si>
+    <t>PPBUlk.WP__prem89</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[1].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[2].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[3].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[4].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[5].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[6].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[7].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[8].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[9].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[10].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[11].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[12].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[13].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[14].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[15].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[16].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[17].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[18].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[19].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[20].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[21].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[22].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[23].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[24].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[25].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[26].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[27].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[28].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[29].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[30].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[31].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[32].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[33].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[34].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[35].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[36].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[37].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[38].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[39].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[40].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[41].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[42].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[43].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[44].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[45].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[46].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[47].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[48].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[49].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[50].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[51].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[52].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[53].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[54].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[55].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[56].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[57].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[58].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[59].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[60].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[61].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[62].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[63].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[65].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[66].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[67].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[68].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[69].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[70].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[71].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[72].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[73].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[74].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[75].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[76].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[77].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[78].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[79].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[80].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[81].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[82].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[83].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[84].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[85].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[86].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[87].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B3Premium_Vector.Value[88].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[0].#text</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_1</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_2</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_3</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_4</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_5</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_6</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_7</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_8</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_9</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_10</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_11</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_12</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_13</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_14</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_15</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_16</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_17</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_18</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_19</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_20</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_21</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_22</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_23</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_24</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_25</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_26</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_27</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_28</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_29</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_30</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_31</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_32</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_33</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_34</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_35</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_36</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_37</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_38</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_39</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_40</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_41</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_42</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_43</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_44</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_45</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOriderprem_46</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[1].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[2].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[3].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[4].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[5].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[6].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[7].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[8].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[9].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[10].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[11].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[12].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[13].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[14].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[15].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[16].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[17].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[18].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[19].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[20].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[21].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[22].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[23].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[24].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[25].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[26].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[27].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[28].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[29].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[30].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[31].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[32].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[33].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[34].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[35].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[36].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[37].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[38].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[39].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[40].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[41].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[42].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[43].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[44].#text</t>
+  </si>
+  <si>
+    <t>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.B2Premium_Vector.Value[45].#text</t>
   </si>
 </sst>
 </file>
@@ -773,7 +2541,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -781,33 +2549,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,15 +2835,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A419" sqref="A419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="85.1796875" customWidth="1"/>
+    <col min="1" max="1" width="106.6328125" customWidth="1"/>
     <col min="2" max="2" width="58.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1110,23 +2857,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1134,7 +2881,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1142,7 +2889,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1150,618 +2897,3398 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f>SUBSTITUTE(A48,MID(A48,FIND("[",A48)+1,FIND("]",A48)-FIND("[",A48)-1),TEXT(VALUE(MID(A48,FIND("[",A48)+1,FIND("]",A48)-FIND("[",A48)-1))+1,"0"))</f>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[31].#text</v>
+      </c>
+      <c r="B49" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f t="shared" ref="A50:A106" si="0">SUBSTITUTE(A49,MID(A49,FIND("[",A49)+1,FIND("]",A49)-FIND("[",A49)-1),TEXT(VALUE(MID(A49,FIND("[",A49)+1,FIND("]",A49)-FIND("[",A49)-1))+1,"0"))</f>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[32].#text</v>
+      </c>
+      <c r="B50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[33].#text</v>
+      </c>
+      <c r="B51" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[34].#text</v>
+      </c>
+      <c r="B52" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[35].#text</v>
+      </c>
+      <c r="B53" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[36].#text</v>
+      </c>
+      <c r="B54" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[37].#text</v>
+      </c>
+      <c r="B55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[38].#text</v>
+      </c>
+      <c r="B56" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[39].#text</v>
+      </c>
+      <c r="B57" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[40].#text</v>
+      </c>
+      <c r="B58" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[41].#text</v>
+      </c>
+      <c r="B59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[42].#text</v>
+      </c>
+      <c r="B60" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[43].#text</v>
+      </c>
+      <c r="B61" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[44].#text</v>
+      </c>
+      <c r="B62" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[45].#text</v>
+      </c>
+      <c r="B63" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[46].#text</v>
+      </c>
+      <c r="B64" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[47].#text</v>
+      </c>
+      <c r="B65" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[48].#text</v>
+      </c>
+      <c r="B66" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[49].#text</v>
+      </c>
+      <c r="B67" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[50].#text</v>
+      </c>
+      <c r="B68" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[51].#text</v>
+      </c>
+      <c r="B69" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[52].#text</v>
+      </c>
+      <c r="B70" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[53].#text</v>
+      </c>
+      <c r="B71" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[54].#text</v>
+      </c>
+      <c r="B72" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[55].#text</v>
+      </c>
+      <c r="B73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[56].#text</v>
+      </c>
+      <c r="B74" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[57].#text</v>
+      </c>
+      <c r="B75" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[58].#text</v>
+      </c>
+      <c r="B76" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[59].#text</v>
+      </c>
+      <c r="B77" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[60].#text</v>
+      </c>
+      <c r="B78" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[61].#text</v>
+      </c>
+      <c r="B79" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[62].#text</v>
+      </c>
+      <c r="B80" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[63].#text</v>
+      </c>
+      <c r="B81" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[64].#text</v>
+      </c>
+      <c r="B82" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[65].#text</v>
+      </c>
+      <c r="B83" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[66].#text</v>
+      </c>
+      <c r="B84" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[67].#text</v>
+      </c>
+      <c r="B85" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[68].#text</v>
+      </c>
+      <c r="B86" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[69].#text</v>
+      </c>
+      <c r="B87" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[70].#text</v>
+      </c>
+      <c r="B88" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[71].#text</v>
+      </c>
+      <c r="B89" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[72].#text</v>
+      </c>
+      <c r="B90" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[73].#text</v>
+      </c>
+      <c r="B91" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[74].#text</v>
+      </c>
+      <c r="B92" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[75].#text</v>
+      </c>
+      <c r="B93" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[76].#text</v>
+      </c>
+      <c r="B94" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[77].#text</v>
+      </c>
+      <c r="B95" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[78].#text</v>
+      </c>
+      <c r="B96" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[79].#text</v>
+      </c>
+      <c r="B97" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[80].#text</v>
+      </c>
+      <c r="B98" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[81].#text</v>
+      </c>
+      <c r="B99" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[82].#text</v>
+      </c>
+      <c r="B100" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[83].#text</v>
+      </c>
+      <c r="B101" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[84].#text</v>
+      </c>
+      <c r="B102" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[85].#text</v>
+      </c>
+      <c r="B103" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[86].#text</v>
+      </c>
+      <c r="B104" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[87].#text</v>
+      </c>
+      <c r="B105" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="str">
+        <f t="shared" si="0"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Premium_Vector.Value[88].#text</v>
+      </c>
+      <c r="B106" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>134</v>
+      </c>
+      <c r="B118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>137</v>
+      </c>
+      <c r="B121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>141</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B125" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>142</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B126" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>143</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B127" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>144</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B128" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>145</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B129" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>146</v>
+      </c>
+      <c r="B130" t="s">
         <v>177</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>148</v>
+      </c>
+      <c r="B132" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>150</v>
+      </c>
+      <c r="B134" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>151</v>
+      </c>
+      <c r="B135" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="str">
+        <f>SUBSTITUTE(A137,MID(A137,FIND("[",A137)+1,FIND("]",A137)-FIND("[",A137)-1),TEXT(VALUE(MID(A137,FIND("[",A137)+1,FIND("]",A137)-FIND("[",A137)-1))+1,"0"))</f>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[31].#text</v>
+      </c>
+      <c r="B138" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="str">
+        <f t="shared" ref="A139:A195" si="1">SUBSTITUTE(A138,MID(A138,FIND("[",A138)+1,FIND("]",A138)-FIND("[",A138)-1),TEXT(VALUE(MID(A138,FIND("[",A138)+1,FIND("]",A138)-FIND("[",A138)-1))+1,"0"))</f>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[32].#text</v>
+      </c>
+      <c r="B139" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[33].#text</v>
+      </c>
+      <c r="B140" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[34].#text</v>
+      </c>
+      <c r="B141" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[35].#text</v>
+      </c>
+      <c r="B142" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[36].#text</v>
+      </c>
+      <c r="B143" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[37].#text</v>
+      </c>
+      <c r="B144" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[38].#text</v>
+      </c>
+      <c r="B145" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[39].#text</v>
+      </c>
+      <c r="B146" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[40].#text</v>
+      </c>
+      <c r="B147" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[41].#text</v>
+      </c>
+      <c r="B148" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[42].#text</v>
+      </c>
+      <c r="B149" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[43].#text</v>
+      </c>
+      <c r="B150" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[44].#text</v>
+      </c>
+      <c r="B151" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[45].#text</v>
+      </c>
+      <c r="B152" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[46].#text</v>
+      </c>
+      <c r="B153" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[47].#text</v>
+      </c>
+      <c r="B154" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[48].#text</v>
+      </c>
+      <c r="B155" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[49].#text</v>
+      </c>
+      <c r="B156" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[50].#text</v>
+      </c>
+      <c r="B157" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[51].#text</v>
+      </c>
+      <c r="B158" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[52].#text</v>
+      </c>
+      <c r="B159" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[53].#text</v>
+      </c>
+      <c r="B160" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[54].#text</v>
+      </c>
+      <c r="B161" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[55].#text</v>
+      </c>
+      <c r="B162" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[56].#text</v>
+      </c>
+      <c r="B163" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[57].#text</v>
+      </c>
+      <c r="B164" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[58].#text</v>
+      </c>
+      <c r="B165" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[59].#text</v>
+      </c>
+      <c r="B166" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[60].#text</v>
+      </c>
+      <c r="B167" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[61].#text</v>
+      </c>
+      <c r="B168" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[62].#text</v>
+      </c>
+      <c r="B169" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[63].#text</v>
+      </c>
+      <c r="B170" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[64].#text</v>
+      </c>
+      <c r="B171" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[65].#text</v>
+      </c>
+      <c r="B172" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[66].#text</v>
+      </c>
+      <c r="B173" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[67].#text</v>
+      </c>
+      <c r="B174" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[68].#text</v>
+      </c>
+      <c r="B175" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[69].#text</v>
+      </c>
+      <c r="B176" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[70].#text</v>
+      </c>
+      <c r="B177" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[71].#text</v>
+      </c>
+      <c r="B178" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[72].#text</v>
+      </c>
+      <c r="B179" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[73].#text</v>
+      </c>
+      <c r="B180" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[74].#text</v>
+      </c>
+      <c r="B181" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[75].#text</v>
+      </c>
+      <c r="B182" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[76].#text</v>
+      </c>
+      <c r="B183" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[77].#text</v>
+      </c>
+      <c r="B184" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[78].#text</v>
+      </c>
+      <c r="B185" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[79].#text</v>
+      </c>
+      <c r="B186" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[80].#text</v>
+      </c>
+      <c r="B187" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[81].#text</v>
+      </c>
+      <c r="B188" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[82].#text</v>
+      </c>
+      <c r="B189" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[83].#text</v>
+      </c>
+      <c r="B190" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[84].#text</v>
+      </c>
+      <c r="B191" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[85].#text</v>
+      </c>
+      <c r="B192" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[86].#text</v>
+      </c>
+      <c r="B193" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[87].#text</v>
+      </c>
+      <c r="B194" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="str">
+        <f t="shared" si="1"/>
+        <v>PayLoad.CalcProcessor.TempCalcValues.TempCalcValuesData.C1Qx_Vector.Value[88].#text</v>
+      </c>
+      <c r="B195" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>189</v>
+      </c>
+      <c r="B196" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>190</v>
+      </c>
+      <c r="B197" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>192</v>
+      </c>
+      <c r="B198" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>193</v>
+      </c>
+      <c r="B199" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>196</v>
+      </c>
+      <c r="B200" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>178</v>
-      </c>
-      <c r="B54" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>180</v>
-      </c>
-      <c r="B56" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>181</v>
-      </c>
-      <c r="B57" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>182</v>
-      </c>
-      <c r="B58" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>183</v>
-      </c>
-      <c r="B59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="B208" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>274</v>
+      </c>
+      <c r="B209" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>275</v>
+      </c>
+      <c r="B210" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>276</v>
+      </c>
+      <c r="B211" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>277</v>
+      </c>
+      <c r="B212" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>278</v>
+      </c>
+      <c r="B213" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>279</v>
+      </c>
+      <c r="B214" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>280</v>
+      </c>
+      <c r="B215" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>281</v>
+      </c>
+      <c r="B216" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>282</v>
+      </c>
+      <c r="B217" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>283</v>
+      </c>
+      <c r="B218" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>284</v>
+      </c>
+      <c r="B219" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>285</v>
+      </c>
+      <c r="B220" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>286</v>
+      </c>
+      <c r="B221" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>287</v>
+      </c>
+      <c r="B222" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>288</v>
+      </c>
+      <c r="B223" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>289</v>
+      </c>
+      <c r="B224" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>290</v>
+      </c>
+      <c r="B225" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>291</v>
+      </c>
+      <c r="B226" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>292</v>
+      </c>
+      <c r="B227" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>293</v>
+      </c>
+      <c r="B228" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>294</v>
+      </c>
+      <c r="B229" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>295</v>
+      </c>
+      <c r="B230" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>296</v>
+      </c>
+      <c r="B231" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>297</v>
+      </c>
+      <c r="B232" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>298</v>
+      </c>
+      <c r="B233" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>299</v>
+      </c>
+      <c r="B234" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>300</v>
+      </c>
+      <c r="B235" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>301</v>
+      </c>
+      <c r="B236" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>302</v>
+      </c>
+      <c r="B237" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>303</v>
+      </c>
+      <c r="B238" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>304</v>
+      </c>
+      <c r="B239" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>305</v>
+      </c>
+      <c r="B240" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>306</v>
+      </c>
+      <c r="B241" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>307</v>
+      </c>
+      <c r="B242" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>308</v>
+      </c>
+      <c r="B243" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>309</v>
+      </c>
+      <c r="B244" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>310</v>
+      </c>
+      <c r="B245" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>311</v>
+      </c>
+      <c r="B246" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>312</v>
+      </c>
+      <c r="B247" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>313</v>
+      </c>
+      <c r="B248" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>314</v>
+      </c>
+      <c r="B249" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>315</v>
+      </c>
+      <c r="B250" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>316</v>
+      </c>
+      <c r="B251" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>317</v>
+      </c>
+      <c r="B252" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>318</v>
+      </c>
+      <c r="B253" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>319</v>
+      </c>
+      <c r="B254" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>320</v>
+      </c>
+      <c r="B255" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>321</v>
+      </c>
+      <c r="B256" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>322</v>
+      </c>
+      <c r="B257" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>323</v>
+      </c>
+      <c r="B258" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>324</v>
+      </c>
+      <c r="B259" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>325</v>
+      </c>
+      <c r="B260" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>326</v>
+      </c>
+      <c r="B261" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>327</v>
+      </c>
+      <c r="B262" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>328</v>
+      </c>
+      <c r="B263" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>329</v>
+      </c>
+      <c r="B264" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>330</v>
+      </c>
+      <c r="B265" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>197</v>
+      </c>
+      <c r="B266" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>200</v>
+      </c>
+      <c r="B267" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>331</v>
+      </c>
+      <c r="B268" t="s">
         <v>185</v>
       </c>
-      <c r="B61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>45</v>
+      </c>
+      <c r="B269" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>46</v>
+      </c>
+      <c r="B270" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>332</v>
+      </c>
+      <c r="B271" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>333</v>
+      </c>
+      <c r="B272" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>334</v>
+      </c>
+      <c r="B273" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>335</v>
+      </c>
+      <c r="B274" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>336</v>
+      </c>
+      <c r="B275" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>337</v>
+      </c>
+      <c r="B276" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>415</v>
+      </c>
+      <c r="B277" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>416</v>
+      </c>
+      <c r="B278" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>417</v>
+      </c>
+      <c r="B279" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>44</v>
+      </c>
+      <c r="B280" t="s">
         <v>186</v>
       </c>
-      <c r="B62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>187</v>
-      </c>
-      <c r="B63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>190</v>
-      </c>
-      <c r="B66" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>191</v>
-      </c>
-      <c r="B67" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>192</v>
-      </c>
-      <c r="B68" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>193</v>
-      </c>
-      <c r="B69" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
         <v>194</v>
       </c>
-      <c r="B70" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>195</v>
-      </c>
-      <c r="B71" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>196</v>
-      </c>
-      <c r="B72" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>197</v>
-      </c>
-      <c r="B73" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>198</v>
-      </c>
-      <c r="B74" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>199</v>
-      </c>
-      <c r="B75" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>200</v>
-      </c>
-      <c r="B76" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>201</v>
-      </c>
-      <c r="B77" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>202</v>
-      </c>
-      <c r="B78" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>203</v>
-      </c>
-      <c r="B79" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B80" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>205</v>
-      </c>
-      <c r="B81" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B82" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>207</v>
-      </c>
-      <c r="B83" t="s">
-        <v>238</v>
+      <c r="B281" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>556</v>
+      </c>
+      <c r="B282" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>646</v>
+      </c>
+      <c r="B283" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>647</v>
+      </c>
+      <c r="B284" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>648</v>
+      </c>
+      <c r="B285" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>649</v>
+      </c>
+      <c r="B286" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>650</v>
+      </c>
+      <c r="B287" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>651</v>
+      </c>
+      <c r="B288" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>652</v>
+      </c>
+      <c r="B289" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>653</v>
+      </c>
+      <c r="B290" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>654</v>
+      </c>
+      <c r="B291" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>655</v>
+      </c>
+      <c r="B292" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>656</v>
+      </c>
+      <c r="B293" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>657</v>
+      </c>
+      <c r="B294" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>658</v>
+      </c>
+      <c r="B295" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>659</v>
+      </c>
+      <c r="B296" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>660</v>
+      </c>
+      <c r="B297" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>661</v>
+      </c>
+      <c r="B298" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>662</v>
+      </c>
+      <c r="B299" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>663</v>
+      </c>
+      <c r="B300" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>664</v>
+      </c>
+      <c r="B301" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>665</v>
+      </c>
+      <c r="B302" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>666</v>
+      </c>
+      <c r="B303" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>667</v>
+      </c>
+      <c r="B304" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>668</v>
+      </c>
+      <c r="B305" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>669</v>
+      </c>
+      <c r="B306" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>670</v>
+      </c>
+      <c r="B307" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>671</v>
+      </c>
+      <c r="B308" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>672</v>
+      </c>
+      <c r="B309" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>673</v>
+      </c>
+      <c r="B310" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>674</v>
+      </c>
+      <c r="B311" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>675</v>
+      </c>
+      <c r="B312" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>676</v>
+      </c>
+      <c r="B313" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>677</v>
+      </c>
+      <c r="B314" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>678</v>
+      </c>
+      <c r="B315" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>679</v>
+      </c>
+      <c r="B316" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>680</v>
+      </c>
+      <c r="B317" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>681</v>
+      </c>
+      <c r="B318" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>682</v>
+      </c>
+      <c r="B319" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>683</v>
+      </c>
+      <c r="B320" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>684</v>
+      </c>
+      <c r="B321" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>685</v>
+      </c>
+      <c r="B322" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>686</v>
+      </c>
+      <c r="B323" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>687</v>
+      </c>
+      <c r="B324" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>688</v>
+      </c>
+      <c r="B325" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>689</v>
+      </c>
+      <c r="B326" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>690</v>
+      </c>
+      <c r="B327" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>691</v>
+      </c>
+      <c r="B328" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>692</v>
+      </c>
+      <c r="B329" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>693</v>
+      </c>
+      <c r="B330" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>694</v>
+      </c>
+      <c r="B331" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>695</v>
+      </c>
+      <c r="B332" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>696</v>
+      </c>
+      <c r="B333" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>697</v>
+      </c>
+      <c r="B334" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>698</v>
+      </c>
+      <c r="B335" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>699</v>
+      </c>
+      <c r="B336" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>700</v>
+      </c>
+      <c r="B337" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>701</v>
+      </c>
+      <c r="B338" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>702</v>
+      </c>
+      <c r="B339" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>703</v>
+      </c>
+      <c r="B340" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>704</v>
+      </c>
+      <c r="B341" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>705</v>
+      </c>
+      <c r="B342" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>706</v>
+      </c>
+      <c r="B343" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>707</v>
+      </c>
+      <c r="B344" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>708</v>
+      </c>
+      <c r="B345" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>555</v>
+      </c>
+      <c r="B346" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>709</v>
+      </c>
+      <c r="B347" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>710</v>
+      </c>
+      <c r="B348" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>711</v>
+      </c>
+      <c r="B349" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>712</v>
+      </c>
+      <c r="B350" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>713</v>
+      </c>
+      <c r="B351" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>714</v>
+      </c>
+      <c r="B352" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>715</v>
+      </c>
+      <c r="B353" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>716</v>
+      </c>
+      <c r="B354" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>717</v>
+      </c>
+      <c r="B355" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>718</v>
+      </c>
+      <c r="B356" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>719</v>
+      </c>
+      <c r="B357" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>720</v>
+      </c>
+      <c r="B358" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>721</v>
+      </c>
+      <c r="B359" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>722</v>
+      </c>
+      <c r="B360" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>723</v>
+      </c>
+      <c r="B361" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>724</v>
+      </c>
+      <c r="B362" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>725</v>
+      </c>
+      <c r="B363" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>726</v>
+      </c>
+      <c r="B364" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>727</v>
+      </c>
+      <c r="B365" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>728</v>
+      </c>
+      <c r="B366" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>729</v>
+      </c>
+      <c r="B367" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>730</v>
+      </c>
+      <c r="B368" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>731</v>
+      </c>
+      <c r="B369" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>732</v>
+      </c>
+      <c r="B370" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>733</v>
+      </c>
+      <c r="B371" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>780</v>
+      </c>
+      <c r="B372" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>781</v>
+      </c>
+      <c r="B373" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>782</v>
+      </c>
+      <c r="B374" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>783</v>
+      </c>
+      <c r="B375" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>784</v>
+      </c>
+      <c r="B376" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>785</v>
+      </c>
+      <c r="B377" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>786</v>
+      </c>
+      <c r="B378" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>787</v>
+      </c>
+      <c r="B379" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>788</v>
+      </c>
+      <c r="B380" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>789</v>
+      </c>
+      <c r="B381" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>790</v>
+      </c>
+      <c r="B382" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>791</v>
+      </c>
+      <c r="B383" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>792</v>
+      </c>
+      <c r="B384" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>793</v>
+      </c>
+      <c r="B385" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>794</v>
+      </c>
+      <c r="B386" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>795</v>
+      </c>
+      <c r="B387" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>796</v>
+      </c>
+      <c r="B388" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>797</v>
+      </c>
+      <c r="B389" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>798</v>
+      </c>
+      <c r="B390" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>799</v>
+      </c>
+      <c r="B391" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>800</v>
+      </c>
+      <c r="B392" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>801</v>
+      </c>
+      <c r="B393" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>802</v>
+      </c>
+      <c r="B394" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>803</v>
+      </c>
+      <c r="B395" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>804</v>
+      </c>
+      <c r="B396" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>805</v>
+      </c>
+      <c r="B397" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>806</v>
+      </c>
+      <c r="B398" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>807</v>
+      </c>
+      <c r="B399" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>808</v>
+      </c>
+      <c r="B400" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>809</v>
+      </c>
+      <c r="B401" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>810</v>
+      </c>
+      <c r="B402" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>811</v>
+      </c>
+      <c r="B403" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>812</v>
+      </c>
+      <c r="B404" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>813</v>
+      </c>
+      <c r="B405" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>814</v>
+      </c>
+      <c r="B406" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>815</v>
+      </c>
+      <c r="B407" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>816</v>
+      </c>
+      <c r="B408" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>817</v>
+      </c>
+      <c r="B409" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>818</v>
+      </c>
+      <c r="B410" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>819</v>
+      </c>
+      <c r="B411" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>820</v>
+      </c>
+      <c r="B412" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>821</v>
+      </c>
+      <c r="B413" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>822</v>
+      </c>
+      <c r="B414" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>823</v>
+      </c>
+      <c r="B415" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>824</v>
+      </c>
+      <c r="B416" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -1771,274 +6298,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DB19EE-6443-443A-AE9C-0BE72CEF0688}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7D1FFB-6354-4A22-889C-9A46ADF975EE}">
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B23" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>201</v>
-      </c>
-      <c r="B25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>204</v>
-      </c>
-      <c r="B28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7D1FFB-6354-4A22-889C-9A46ADF975EE}">
-  <dimension ref="A1:C37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2061,24 +6325,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2086,10 +6350,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2097,32 +6361,32 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2130,10 +6394,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>338</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2141,10 +6405,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2152,10 +6416,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2163,10 +6427,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2174,213 +6438,553 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>27</v>
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>339</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>29</v>
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>340</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>341</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
-        <v>33</v>
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>342</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>343</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>344</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>345</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>346</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>347</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>348</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>349</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>350</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>351</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>352</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>353</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>354</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>355</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>356</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>357</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>358</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>359</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>360</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>361</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>362</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>363</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>364</v>
+      </c>
+      <c r="C38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>365</v>
+      </c>
+      <c r="C39" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>366</v>
+      </c>
+      <c r="C40" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>367</v>
+      </c>
+      <c r="C41" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>369</v>
+      </c>
+      <c r="C43" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>370</v>
+      </c>
+      <c r="C44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>372</v>
+      </c>
+      <c r="C46" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>374</v>
+      </c>
+      <c r="C48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>376</v>
+      </c>
+      <c r="C50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>378</v>
+      </c>
+      <c r="C52" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>379</v>
+      </c>
+      <c r="C53" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>380</v>
+      </c>
+      <c r="C54" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>381</v>
+      </c>
+      <c r="C55" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>382</v>
+      </c>
+      <c r="C56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>383</v>
+      </c>
+      <c r="C57" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>384</v>
+      </c>
+      <c r="C58" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>385</v>
+      </c>
+      <c r="C59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>386</v>
+      </c>
+      <c r="C60" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>387</v>
+      </c>
+      <c r="C61" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>